--- a/artfynd/A 33061-2022.xlsx
+++ b/artfynd/A 33061-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96262807</v>
+        <v>96262816</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>89608</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>1101</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>555746.1727382024</v>
+        <v>555514.7147144648</v>
       </c>
       <c r="R2" t="n">
-        <v>6273351.200414369</v>
+        <v>6273376.768988844</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96262816</v>
+        <v>106143322</v>
       </c>
       <c r="B3" t="n">
-        <v>89608</v>
+        <v>89412</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,40 +812,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1101</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Runtorp 3:31, Sm</t>
+          <t>Skrikkärret, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555514.7147144648</v>
+        <v>555610.1681616344</v>
       </c>
       <c r="R3" t="n">
-        <v>6273376.768988844</v>
+        <v>6273374.724976264</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -869,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -879,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -893,7 +891,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -912,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96633855</v>
+        <v>96262807</v>
       </c>
       <c r="B4" t="n">
-        <v>93375</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,34 +925,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Runtorp, Sm</t>
+          <t>Runtorp 3:31, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555807.8778988622</v>
+        <v>555746.1727382024</v>
       </c>
       <c r="R4" t="n">
-        <v>6273440.092907567</v>
+        <v>6273351.200414369</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1006,28 +1006,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Örjan Fritz, Tommy Knutsson</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96633881</v>
+        <v>96633855</v>
       </c>
       <c r="B5" t="n">
-        <v>94160</v>
+        <v>93375</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2590</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555714.1894052199</v>
+        <v>555807.8778988622</v>
       </c>
       <c r="R5" t="n">
-        <v>6273433.898707408</v>
+        <v>6273440.092907567</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1120,16 +1121,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Tallåga</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Tallåga</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1146,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96633856</v>
+        <v>96633881</v>
       </c>
       <c r="B6" t="n">
-        <v>73678</v>
+        <v>94160</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6439</v>
+        <v>2590</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1186,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555823.4655818035</v>
+        <v>555714.1894052199</v>
       </c>
       <c r="R6" t="n">
-        <v>6273429.290068074</v>
+        <v>6273433.898707408</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,12 +1236,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Björkhögstubbe</t>
+          <t>Tallåga</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Björkhögstubbe</t>
+          <t>Tallåga</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1268,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96633882</v>
+        <v>96633856</v>
       </c>
       <c r="B7" t="n">
-        <v>93375</v>
+        <v>73678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1284,21 +1275,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2180</v>
+        <v>6439</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1308,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555702.7083504642</v>
+        <v>555823.4655818035</v>
       </c>
       <c r="R7" t="n">
-        <v>6273467.875719456</v>
+        <v>6273429.290068074</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1364,6 +1355,16 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Björkhögstubbe</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Björkhögstubbe</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1380,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96633883</v>
+        <v>96633882</v>
       </c>
       <c r="B8" t="n">
-        <v>103265</v>
+        <v>93375</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,21 +1397,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>2180</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555749.1500618936</v>
+        <v>555702.7083504642</v>
       </c>
       <c r="R8" t="n">
-        <v>6273459.6825962</v>
+        <v>6273467.875719456</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96633879</v>
+        <v>96633883</v>
       </c>
       <c r="B9" t="n">
-        <v>93375</v>
+        <v>103265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2180</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1533,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555651.4809675445</v>
+        <v>555749.1500618936</v>
       </c>
       <c r="R9" t="n">
-        <v>6273337.287564456</v>
+        <v>6273459.6825962</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1604,7 +1605,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96633854</v>
+        <v>96633879</v>
       </c>
       <c r="B10" t="n">
         <v>93375</v>
@@ -1644,10 +1645,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555781.7172046133</v>
+        <v>555651.4809675445</v>
       </c>
       <c r="R10" t="n">
-        <v>6273457.911813607</v>
+        <v>6273337.287564456</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1716,10 +1717,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96634072</v>
+        <v>96633854</v>
       </c>
       <c r="B11" t="n">
-        <v>89608</v>
+        <v>93375</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1728,49 +1729,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1101</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Runtorp, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555827.4208590516</v>
+        <v>555781.7172046133</v>
       </c>
       <c r="R11" t="n">
-        <v>6273422.186384857</v>
+        <v>6273457.911813607</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,7 +1787,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1807,7 +1797,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1821,24 +1811,8 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Äldre barrblandskog, vid sumpskog</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Grov granhögstubbe</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Grov granhögstubbe</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1848,17 +1822,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Örjan Fritz, Tommy Knutsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106143260</v>
+        <v>96634072</v>
       </c>
       <c r="B12" t="n">
-        <v>94121</v>
+        <v>89608</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,38 +1845,48 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>1101</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Peck) Jülich</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Skrikkärret, Sm</t>
+          <t>Runtorp, Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555661.9803055829</v>
+        <v>555827.4208590516</v>
       </c>
       <c r="R12" t="n">
-        <v>6273377.61107329</v>
+        <v>6273422.186384857</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1926,7 +1910,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1936,7 +1920,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1950,25 +1934,41 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Äldre barrblandskog, vid sumpskog</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Grov granhögstubbe</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Grov granhögstubbe</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106141696</v>
+        <v>106143260</v>
       </c>
       <c r="B13" t="n">
         <v>94121</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555708.3485626371</v>
+        <v>555661.9803055829</v>
       </c>
       <c r="R13" t="n">
-        <v>6273416.756955354</v>
+        <v>6273377.61107329</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106141767</v>
+        <v>106141696</v>
       </c>
       <c r="B14" t="n">
-        <v>89356</v>
+        <v>94121</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,25 +2093,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555702.2893718411</v>
+        <v>555708.3485626371</v>
       </c>
       <c r="R14" t="n">
-        <v>6273416.126371296</v>
+        <v>6273416.756955354</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106141796</v>
+        <v>106141767</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,25 +2206,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555701.3464607084</v>
+        <v>555702.2893718411</v>
       </c>
       <c r="R15" t="n">
-        <v>6273404.003560521</v>
+        <v>6273416.126371296</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106143142</v>
+        <v>106141796</v>
       </c>
       <c r="B16" t="n">
-        <v>93375</v>
+        <v>89392</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2319,25 +2319,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>555643.2137570907</v>
+        <v>555701.3464607084</v>
       </c>
       <c r="R16" t="n">
-        <v>6273420.299950346</v>
+        <v>6273404.003560521</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106141961</v>
+        <v>106143142</v>
       </c>
       <c r="B17" t="n">
-        <v>89356</v>
+        <v>93375</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2436,35 +2436,35 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>2180</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Danieltorpet, Sm</t>
+          <t>Skrikkärret, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>555711.8411078266</v>
+        <v>555643.2137570907</v>
       </c>
       <c r="R17" t="n">
-        <v>6273361.20536664</v>
+        <v>6273420.299950346</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106141900</v>
+        <v>106141961</v>
       </c>
       <c r="B18" t="n">
-        <v>94121</v>
+        <v>89356</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2545,39 +2545,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Skrikkärret, Sm</t>
+          <t>Danieltorpet, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>555704.8300996814</v>
+        <v>555711.8411078266</v>
       </c>
       <c r="R18" t="n">
-        <v>6273390.838294678</v>
+        <v>6273361.20536664</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106141421</v>
+        <v>106141900</v>
       </c>
       <c r="B19" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2662,21 +2662,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>555787.5358269701</v>
+        <v>555704.8300996814</v>
       </c>
       <c r="R19" t="n">
-        <v>6273476.704603848</v>
+        <v>6273390.838294678</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106142710</v>
+        <v>106141421</v>
       </c>
       <c r="B20" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2775,21 +2775,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555689.8086378598</v>
+        <v>555787.5358269701</v>
       </c>
       <c r="R20" t="n">
-        <v>6273400.548207617</v>
+        <v>6273476.704603848</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106141524</v>
+        <v>106142710</v>
       </c>
       <c r="B21" t="n">
         <v>94121</v>
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555690.5260542365</v>
+        <v>555689.8086378598</v>
       </c>
       <c r="R21" t="n">
-        <v>6273429.732573757</v>
+        <v>6273400.548207617</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106143322</v>
+        <v>106141524</v>
       </c>
       <c r="B22" t="n">
-        <v>89412</v>
+        <v>94121</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3001,21 +3001,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5442</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555610.1681616344</v>
+        <v>555690.5260542365</v>
       </c>
       <c r="R22" t="n">
-        <v>6273374.724976264</v>
+        <v>6273429.732573757</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>

--- a/artfynd/A 33061-2022.xlsx
+++ b/artfynd/A 33061-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96262816</v>
+        <v>96262807</v>
       </c>
       <c r="B2" t="n">
-        <v>89608</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1101</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>555514.7147144648</v>
+        <v>555746.1727382024</v>
       </c>
       <c r="R2" t="n">
-        <v>6273376.768988844</v>
+        <v>6273351.200414369</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106143322</v>
+        <v>96262816</v>
       </c>
       <c r="B3" t="n">
-        <v>89412</v>
+        <v>89608</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,38 +812,40 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>1101</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Skrikkärret, Sm</t>
+          <t>Runtorp 3:31, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555610.1681616344</v>
+        <v>555514.7147144648</v>
       </c>
       <c r="R3" t="n">
-        <v>6273374.724976264</v>
+        <v>6273376.768988844</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -867,7 +869,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +879,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -891,6 +893,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -909,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96262807</v>
+        <v>96633855</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>93375</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,37 +928,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>2180</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Runtorp 3:31, Sm</t>
+          <t>Runtorp, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555746.1727382024</v>
+        <v>555807.8778988622</v>
       </c>
       <c r="R4" t="n">
-        <v>6273351.200414369</v>
+        <v>6273440.092907567</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-09-23</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1006,29 +1006,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Alexander Singer</t>
+          <t>Örjan Fritz, Tommy Knutsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96633855</v>
+        <v>96633881</v>
       </c>
       <c r="B5" t="n">
-        <v>93375</v>
+        <v>94160</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>2590</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555807.8778988622</v>
+        <v>555714.1894052199</v>
       </c>
       <c r="R5" t="n">
-        <v>6273440.092907567</v>
+        <v>6273433.898707408</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,6 +1120,16 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Tallåga</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Tallåga</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1137,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96633881</v>
+        <v>96633856</v>
       </c>
       <c r="B6" t="n">
-        <v>94160</v>
+        <v>73678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1162,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2590</v>
+        <v>6439</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555714.1894052199</v>
+        <v>555823.4655818035</v>
       </c>
       <c r="R6" t="n">
-        <v>6273433.898707408</v>
+        <v>6273429.290068074</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1236,12 +1245,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Tallåga</t>
+          <t>Björkhögstubbe</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Tallåga</t>
+          <t>Björkhögstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1259,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96633856</v>
+        <v>96633882</v>
       </c>
       <c r="B7" t="n">
-        <v>73678</v>
+        <v>93375</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1284,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6439</v>
+        <v>2180</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555823.4655818035</v>
+        <v>555702.7083504642</v>
       </c>
       <c r="R7" t="n">
-        <v>6273429.290068074</v>
+        <v>6273467.875719456</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1355,16 +1364,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Björkhögstubbe</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Björkhögstubbe</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1381,10 +1380,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96633882</v>
+        <v>96633883</v>
       </c>
       <c r="B8" t="n">
-        <v>93375</v>
+        <v>103265</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,21 +1396,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2180</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1421,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555702.7083504642</v>
+        <v>555749.1500618936</v>
       </c>
       <c r="R8" t="n">
-        <v>6273467.875719456</v>
+        <v>6273459.6825962</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96633883</v>
+        <v>96633879</v>
       </c>
       <c r="B9" t="n">
-        <v>103265</v>
+        <v>93375</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1508,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>2180</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1533,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555749.1500618936</v>
+        <v>555651.4809675445</v>
       </c>
       <c r="R9" t="n">
-        <v>6273459.6825962</v>
+        <v>6273337.287564456</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1605,7 +1604,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96633879</v>
+        <v>96633854</v>
       </c>
       <c r="B10" t="n">
         <v>93375</v>
@@ -1645,10 +1644,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555651.4809675445</v>
+        <v>555781.7172046133</v>
       </c>
       <c r="R10" t="n">
-        <v>6273337.287564456</v>
+        <v>6273457.911813607</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1717,10 +1716,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96633854</v>
+        <v>96634072</v>
       </c>
       <c r="B11" t="n">
-        <v>93375</v>
+        <v>89608</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1729,38 +1728,49 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>1101</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Peck) Jülich</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Runtorp, Sm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555781.7172046133</v>
+        <v>555827.4208590516</v>
       </c>
       <c r="R11" t="n">
-        <v>6273457.911813607</v>
+        <v>6273422.186384857</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1787,7 +1797,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1797,7 +1807,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1811,8 +1821,24 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Äldre barrblandskog, vid sumpskog</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Grov granhögstubbe</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Grov granhögstubbe</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1822,17 +1848,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Örjan Fritz, Tommy Knutsson</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96634072</v>
+        <v>106143260</v>
       </c>
       <c r="B12" t="n">
-        <v>89608</v>
+        <v>94121</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1845,48 +1871,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1101</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Runtorp, Sm</t>
+          <t>Skrikkärret, Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555827.4208590516</v>
+        <v>555661.9803055829</v>
       </c>
       <c r="R12" t="n">
-        <v>6273422.186384857</v>
+        <v>6273377.61107329</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1910,7 +1926,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1920,7 +1936,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1934,41 +1950,25 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Äldre barrblandskog, vid sumpskog</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Grov granhögstubbe</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Grov granhögstubbe</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Alexander Singer</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106143260</v>
+        <v>106141696</v>
       </c>
       <c r="B13" t="n">
         <v>94121</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555661.9803055829</v>
+        <v>555708.3485626371</v>
       </c>
       <c r="R13" t="n">
-        <v>6273377.61107329</v>
+        <v>6273416.756955354</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106141696</v>
+        <v>106141767</v>
       </c>
       <c r="B14" t="n">
-        <v>94121</v>
+        <v>89356</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,25 +2093,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555708.3485626371</v>
+        <v>555702.2893718411</v>
       </c>
       <c r="R14" t="n">
-        <v>6273416.756955354</v>
+        <v>6273416.126371296</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106141767</v>
+        <v>106141796</v>
       </c>
       <c r="B15" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,25 +2206,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555702.2893718411</v>
+        <v>555701.3464607084</v>
       </c>
       <c r="R15" t="n">
-        <v>6273416.126371296</v>
+        <v>6273404.003560521</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106141796</v>
+        <v>106143142</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>93375</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2319,25 +2319,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>555701.3464607084</v>
+        <v>555643.2137570907</v>
       </c>
       <c r="R16" t="n">
-        <v>6273404.003560521</v>
+        <v>6273420.299950346</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106143142</v>
+        <v>106141961</v>
       </c>
       <c r="B17" t="n">
-        <v>93375</v>
+        <v>89356</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2436,35 +2436,35 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2180</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Skrikkärret, Sm</t>
+          <t>Danieltorpet, Sm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>555643.2137570907</v>
+        <v>555711.8411078266</v>
       </c>
       <c r="R17" t="n">
-        <v>6273420.299950346</v>
+        <v>6273361.20536664</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106141961</v>
+        <v>106141900</v>
       </c>
       <c r="B18" t="n">
-        <v>89356</v>
+        <v>94121</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2545,39 +2545,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Danieltorpet, Sm</t>
+          <t>Skrikkärret, Sm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>555711.8411078266</v>
+        <v>555704.8300996814</v>
       </c>
       <c r="R18" t="n">
-        <v>6273361.20536664</v>
+        <v>6273390.838294678</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106141900</v>
+        <v>106141421</v>
       </c>
       <c r="B19" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2662,21 +2662,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>555704.8300996814</v>
+        <v>555787.5358269701</v>
       </c>
       <c r="R19" t="n">
-        <v>6273390.838294678</v>
+        <v>6273476.704603848</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106141421</v>
+        <v>106142710</v>
       </c>
       <c r="B20" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2775,21 +2775,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555787.5358269701</v>
+        <v>555689.8086378598</v>
       </c>
       <c r="R20" t="n">
-        <v>6273476.704603848</v>
+        <v>6273400.548207617</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106142710</v>
+        <v>106141524</v>
       </c>
       <c r="B21" t="n">
         <v>94121</v>
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555689.8086378598</v>
+        <v>555690.5260542365</v>
       </c>
       <c r="R21" t="n">
-        <v>6273400.548207617</v>
+        <v>6273429.732573757</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106141524</v>
+        <v>106143322</v>
       </c>
       <c r="B22" t="n">
-        <v>94121</v>
+        <v>89412</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3001,21 +3001,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555690.5260542365</v>
+        <v>555610.1681616344</v>
       </c>
       <c r="R22" t="n">
-        <v>6273429.732573757</v>
+        <v>6273374.724976264</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
